--- a/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
+++ b/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="120" yWindow="120" windowWidth="25875" windowHeight="13365" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="120" yWindow="460" windowWidth="25880" windowHeight="13360" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,9 +15,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BESP-freight" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <pivotCaches>
-    <pivotCache xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cacheId="16" r:id="rId8"/>
+    <pivotCache xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cacheId="26" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -99,7 +99,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -132,6 +132,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1223,128 +1224,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="16" dataOnRows="0" dataCaption="Values" showError="0" showMissing="1" updatedVersion="6" minRefreshableVersion="3" asteriskTotals="0" showItems="1" editData="0" disableFieldList="0" showCalcMbrs="1" visualTotals="1" showMultipleLabel="1" showDataDropDown="1" showDrill="1" printDrill="0" showMemberPropertyTips="1" showDataTips="1" enableWizard="1" enableDrill="1" enableFieldProperties="1" preserveFormatting="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" subtotalHiddenItems="0" rowGrandTotals="1" colGrandTotals="1" fieldPrintTitles="0" itemPrintTitles="1" mergeItem="0" showDropZones="1" createdVersion="6" indent="0" showEmptyRow="0" showEmptyCol="0" showHeaders="1" compact="1" outline="1" outlineData="1" compactData="1" published="0" gridDropZones="0" immersive="1" multipleFieldFilters="0" chartFormat="0" fieldListSortAscending="0" mdxSubqueries="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" r:id="rId1">
-  <location ref="A22:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField axis="axisRow" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="ascending" defaultSubtotal="1">
-      <items count="23">
-        <item t="data" sd="1" x="10"/>
-        <item t="data" sd="1" x="5"/>
-        <item t="data" sd="1" m="1" x="21"/>
-        <item t="data" sd="1" x="16"/>
-        <item t="data" sd="1" m="1" x="19"/>
-        <item t="data" sd="1" x="6"/>
-        <item t="data" sd="1" x="2"/>
-        <item t="data" sd="1" x="3"/>
-        <item t="data" sd="1" x="15"/>
-        <item t="data" sd="1" x="9"/>
-        <item t="data" sd="1" x="7"/>
-        <item t="data" sd="1" x="13"/>
-        <item t="data" sd="1" m="1" x="20"/>
-        <item t="data" sd="1" x="11"/>
-        <item t="data" sd="1" x="4"/>
-        <item t="data" sd="1" x="12"/>
-        <item t="data" sd="1" m="1" x="18"/>
-        <item t="data" sd="1" x="17"/>
-        <item t="data" sd="1" x="0"/>
-        <item t="data" sd="1" x="1"/>
-        <item t="data" sd="1" x="14"/>
-        <item t="data" sd="1" x="8"/>
-        <item t="default" sd="1"/>
-      </items>
-    </pivotField>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
-      <items count="3">
-        <item t="data" sd="1" x="0"/>
-        <item t="data" sd="1" x="1"/>
-        <item t="default" sd="1"/>
-      </items>
-    </pivotField>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-    <pivotField dataField="1" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="19">
-    <i t="data" r="0" i="0"/>
-    <i t="data" r="0" i="0">
-      <x v="1"/>
-    </i>
-    <i t="data" r="0" i="0">
-      <x v="3"/>
-    </i>
-    <i t="data" r="0" i="0">
-      <x v="5"/>
-    </i>
-    <i t="data" r="0" i="0">
-      <x v="6"/>
-    </i>
-    <i t="data" r="0" i="0">
-      <x v="7"/>
-    </i>
-    <i t="data" r="0" i="0">
-      <x v="8"/>
-    </i>
-    <i t="data" r="0" i="0">
-      <x v="9"/>
-    </i>
-    <i t="data" r="0" i="0">
-      <x v="10"/>
-    </i>
-    <i t="data" r="0" i="0">
-      <x v="11"/>
-    </i>
-    <i t="data" r="0" i="0">
-      <x v="13"/>
-    </i>
-    <i t="data" r="0" i="0">
-      <x v="14"/>
-    </i>
-    <i t="data" r="0" i="0">
-      <x v="15"/>
-    </i>
-    <i t="data" r="0" i="0">
-      <x v="17"/>
-    </i>
-    <i t="data" r="0" i="0">
-      <x v="18"/>
-    </i>
-    <i t="data" r="0" i="0">
-      <x v="19"/>
-    </i>
-    <i t="data" r="0" i="0">
-      <x v="20"/>
-    </i>
-    <i t="data" r="0" i="0">
-      <x v="21"/>
-    </i>
-    <i t="grand" r="0" i="0"/>
-  </rowItems>
-  <colItems count="1">
-    <i t="data" r="0" i="0"/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of TOTAL" fld="15" subtotal="sum" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="16" dataOnRows="0" dataCaption="Values" showError="0" showMissing="1" updatedVersion="6" minRefreshableVersion="3" asteriskTotals="0" showItems="1" editData="0" disableFieldList="0" showCalcMbrs="1" visualTotals="1" showMultipleLabel="1" showDataDropDown="1" showDrill="1" printDrill="0" showMemberPropertyTips="1" showDataTips="1" enableWizard="1" enableDrill="1" enableFieldProperties="1" preserveFormatting="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" subtotalHiddenItems="0" rowGrandTotals="0" colGrandTotals="1" fieldPrintTitles="0" itemPrintTitles="1" mergeItem="0" showDropZones="1" createdVersion="6" indent="0" showEmptyRow="0" showEmptyCol="0" showHeaders="1" compact="1" outline="1" outlineData="1" compactData="1" published="0" gridDropZones="0" immersive="1" multipleFieldFilters="0" chartFormat="0" fieldListSortAscending="0" mdxSubqueries="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" r:id="rId1">
+<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="26" dataOnRows="0" dataCaption="Values" showError="0" showMissing="1" updatedVersion="6" minRefreshableVersion="3" asteriskTotals="0" showItems="1" editData="0" disableFieldList="0" showCalcMbrs="1" visualTotals="1" showMultipleLabel="1" showDataDropDown="1" showDrill="1" printDrill="0" showMemberPropertyTips="1" showDataTips="1" enableWizard="1" enableDrill="1" enableFieldProperties="1" preserveFormatting="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" subtotalHiddenItems="0" rowGrandTotals="0" colGrandTotals="1" fieldPrintTitles="0" itemPrintTitles="1" mergeItem="0" showDropZones="1" createdVersion="6" indent="0" showEmptyRow="0" showEmptyCol="0" showHeaders="1" compact="1" outline="1" outlineData="1" compactData="1" published="0" gridDropZones="0" immersive="1" multipleFieldFilters="0" chartFormat="0" fieldListSortAscending="0" mdxSubqueries="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" r:id="rId1">
   <location ref="G22:J40" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="ascending" defaultSubtotal="0">
@@ -1561,6 +1441,127 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="26" dataOnRows="0" dataCaption="Values" showError="0" showMissing="1" updatedVersion="6" minRefreshableVersion="3" asteriskTotals="0" showItems="1" editData="0" disableFieldList="0" showCalcMbrs="1" visualTotals="1" showMultipleLabel="1" showDataDropDown="1" showDrill="1" printDrill="0" showMemberPropertyTips="1" showDataTips="1" enableWizard="1" enableDrill="1" enableFieldProperties="1" preserveFormatting="1" useAutoFormatting="1" pageWrap="0" pageOverThenDown="0" subtotalHiddenItems="0" rowGrandTotals="1" colGrandTotals="1" fieldPrintTitles="0" itemPrintTitles="1" mergeItem="0" showDropZones="1" createdVersion="6" indent="0" showEmptyRow="0" showEmptyCol="0" showHeaders="1" compact="1" outline="1" outlineData="1" compactData="1" published="0" gridDropZones="0" immersive="1" multipleFieldFilters="0" chartFormat="0" fieldListSortAscending="0" mdxSubqueries="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" r:id="rId1">
+  <location ref="A22:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField axis="axisRow" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="ascending" defaultSubtotal="1">
+      <items count="23">
+        <item t="data" sd="1" x="10"/>
+        <item t="data" sd="1" x="5"/>
+        <item t="data" sd="1" m="1" x="21"/>
+        <item t="data" sd="1" x="16"/>
+        <item t="data" sd="1" m="1" x="19"/>
+        <item t="data" sd="1" x="6"/>
+        <item t="data" sd="1" x="2"/>
+        <item t="data" sd="1" x="3"/>
+        <item t="data" sd="1" x="15"/>
+        <item t="data" sd="1" x="9"/>
+        <item t="data" sd="1" x="7"/>
+        <item t="data" sd="1" x="13"/>
+        <item t="data" sd="1" m="1" x="20"/>
+        <item t="data" sd="1" x="11"/>
+        <item t="data" sd="1" x="4"/>
+        <item t="data" sd="1" x="12"/>
+        <item t="data" sd="1" m="1" x="18"/>
+        <item t="data" sd="1" x="17"/>
+        <item t="data" sd="1" x="0"/>
+        <item t="data" sd="1" x="1"/>
+        <item t="data" sd="1" x="14"/>
+        <item t="data" sd="1" x="8"/>
+        <item t="default" sd="1"/>
+      </items>
+    </pivotField>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1">
+      <items count="3">
+        <item t="data" sd="1" x="0"/>
+        <item t="data" sd="1" x="1"/>
+        <item t="default" sd="1"/>
+      </items>
+    </pivotField>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+    <pivotField dataField="1" showDropDowns="1" compact="1" outline="1" subtotalTop="1" dragToRow="1" dragToCol="1" dragToPage="1" dragToData="1" dragOff="1" showAll="0" topAutoShow="1" itemPageCount="10" sortType="manual" defaultSubtotal="1"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="19">
+    <i t="data" r="0" i="0"/>
+    <i t="data" r="0" i="0">
+      <x v="1"/>
+    </i>
+    <i t="data" r="0" i="0">
+      <x v="3"/>
+    </i>
+    <i t="data" r="0" i="0">
+      <x v="5"/>
+    </i>
+    <i t="data" r="0" i="0">
+      <x v="6"/>
+    </i>
+    <i t="data" r="0" i="0">
+      <x v="7"/>
+    </i>
+    <i t="data" r="0" i="0">
+      <x v="8"/>
+    </i>
+    <i t="data" r="0" i="0">
+      <x v="9"/>
+    </i>
+    <i t="data" r="0" i="0">
+      <x v="10"/>
+    </i>
+    <i t="data" r="0" i="0">
+      <x v="11"/>
+    </i>
+    <i t="data" r="0" i="0">
+      <x v="13"/>
+    </i>
+    <i t="data" r="0" i="0">
+      <x v="14"/>
+    </i>
+    <i t="data" r="0" i="0">
+      <x v="15"/>
+    </i>
+    <i t="data" r="0" i="0">
+      <x v="17"/>
+    </i>
+    <i t="data" r="0" i="0">
+      <x v="18"/>
+    </i>
+    <i t="data" r="0" i="0">
+      <x v="19"/>
+    </i>
+    <i t="data" r="0" i="0">
+      <x v="20"/>
+    </i>
+    <i t="data" r="0" i="0">
+      <x v="21"/>
+    </i>
+    <i t="grand" r="0" i="0"/>
+  </rowItems>
+  <colItems count="1">
+    <i t="data" r="0" i="0"/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of TOTAL" fld="15" subtotal="sum" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1637,6 +1638,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1672,6 +1690,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1852,15 +1887,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="70.86328125" customWidth="1" style="3" min="2" max="2"/>
+    <col width="70.83203125" customWidth="1" style="3" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1871,8 +1906,11 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Arizona</t>
-        </is>
+          <t>Montana</t>
+        </is>
+      </c>
+      <c r="C1" s="24" t="n">
+        <v>44307</v>
       </c>
     </row>
     <row r="3">
@@ -2106,11 +2144,11 @@
       <selection activeCell="A33" sqref="A33:AF33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="18.3984375" customWidth="1" style="23" min="1" max="1"/>
-    <col width="15.73046875" customWidth="1" style="23" min="2" max="2"/>
-    <col width="19.1328125" customWidth="1" style="23" min="3" max="3"/>
+    <col width="18.33203125" customWidth="1" style="23" min="1" max="1"/>
+    <col width="15.6640625" customWidth="1" style="23" min="2" max="2"/>
+    <col width="19.1640625" customWidth="1" style="23" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2219,161 +2257,161 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="24">
+      <c r="A3" s="25">
         <f>BAU!C92</f>
         <v/>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="25">
         <f>BAU!D92</f>
         <v/>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="25">
         <f>BAU!E92</f>
         <v/>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="25">
         <f>BAU!F92</f>
         <v/>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="25">
         <f>BAU!G92</f>
         <v/>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="25">
         <f>BAU!H92</f>
         <v/>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="25">
         <f>BAU!I92</f>
         <v/>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="25">
         <f>BAU!J92</f>
         <v/>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="25">
         <f>BAU!K92</f>
         <v/>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="25">
         <f>BAU!L92</f>
         <v/>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="25">
         <f>BAU!M92</f>
         <v/>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="25">
         <f>BAU!N92</f>
         <v/>
       </c>
-      <c r="M3" s="24">
+      <c r="M3" s="25">
         <f>BAU!O92</f>
         <v/>
       </c>
-      <c r="N3" s="24">
+      <c r="N3" s="25">
         <f>BAU!P92</f>
         <v/>
       </c>
-      <c r="O3" s="24">
+      <c r="O3" s="25">
         <f>BAU!Q92</f>
         <v/>
       </c>
-      <c r="P3" s="24">
+      <c r="P3" s="25">
         <f>BAU!R92</f>
         <v/>
       </c>
-      <c r="Q3" s="24">
+      <c r="Q3" s="25">
         <f>BAU!S92</f>
         <v/>
       </c>
-      <c r="R3" s="24">
+      <c r="R3" s="25">
         <f>BAU!T92</f>
         <v/>
       </c>
-      <c r="S3" s="24">
+      <c r="S3" s="25">
         <f>BAU!U92</f>
         <v/>
       </c>
-      <c r="T3" s="24">
+      <c r="T3" s="25">
         <f>BAU!V92</f>
         <v/>
       </c>
-      <c r="U3" s="24">
+      <c r="U3" s="25">
         <f>BAU!W92</f>
         <v/>
       </c>
-      <c r="V3" s="24">
+      <c r="V3" s="25">
         <f>BAU!X92</f>
         <v/>
       </c>
-      <c r="W3" s="24">
+      <c r="W3" s="25">
         <f>BAU!Y92</f>
         <v/>
       </c>
-      <c r="X3" s="24">
+      <c r="X3" s="25">
         <f>BAU!Z92</f>
         <v/>
       </c>
-      <c r="Y3" s="24">
+      <c r="Y3" s="25">
         <f>BAU!AA92</f>
         <v/>
       </c>
-      <c r="Z3" s="24">
+      <c r="Z3" s="25">
         <f>BAU!AB92</f>
         <v/>
       </c>
-      <c r="AA3" s="24">
+      <c r="AA3" s="25">
         <f>BAU!AC92</f>
         <v/>
       </c>
-      <c r="AB3" s="24">
+      <c r="AB3" s="25">
         <f>BAU!AD92</f>
         <v/>
       </c>
-      <c r="AC3" s="24">
+      <c r="AC3" s="25">
         <f>BAU!AE92</f>
         <v/>
       </c>
-      <c r="AD3" s="24">
+      <c r="AD3" s="25">
         <f>BAU!AF92</f>
         <v/>
       </c>
-      <c r="AE3" s="24">
+      <c r="AE3" s="25">
         <f>BAU!AG92</f>
         <v/>
       </c>
-      <c r="AF3" s="24">
+      <c r="AF3" s="25">
         <f>BAU!AH92</f>
         <v/>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="24" t="n"/>
+      <c r="A4" s="25" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="25" t="inlineStr">
+      <c r="A5" s="26" t="inlineStr">
         <is>
           <t>State EV Subsidy Amounts</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="24" t="inlineStr">
+      <c r="A6" s="25" t="inlineStr">
         <is>
           <t>This list only includes rebates on the EV itself, not on charging equipment.</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="24" t="inlineStr">
+      <c r="A7" s="25" t="inlineStr">
         <is>
           <t>It also omits states that do not offer a rebate but do exempt EVs from sales, use, or excise taxes.</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="25" t="inlineStr">
+      <c r="A8" s="26" t="inlineStr">
         <is>
           <t>Rebate</t>
         </is>
@@ -2390,7 +2428,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="24" t="n">
+      <c r="A9" s="25" t="n">
         <v>2500</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -2403,7 +2441,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="24" t="n">
+      <c r="A10" s="25" t="n">
         <v>5000</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -2416,7 +2454,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="24" t="n">
+      <c r="A11" s="25" t="n">
         <v>3500</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -2429,7 +2467,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="26" t="n">
+      <c r="A12" s="27" t="n">
         <v>1500</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -2442,7 +2480,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="24" t="n">
+      <c r="A13" s="25" t="n">
         <v>2500</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -2455,7 +2493,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="24" t="n">
+      <c r="A14" s="25" t="n">
         <v>1500</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -2468,7 +2506,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="24" t="n">
+      <c r="A15" s="25" t="n">
         <v>2500</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -2481,17 +2519,17 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="27" t="inlineStr">
+      <c r="A16" s="28" t="inlineStr">
         <is>
           <t>Note: Pennsylvania offers a $1750 rebate, but only to the first 250 qualified applicants.</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="24" t="n"/>
+      <c r="A17" s="25" t="n"/>
     </row>
     <row r="18">
-      <c r="B18" s="24" t="inlineStr">
+      <c r="B18" s="25" t="inlineStr">
         <is>
           <t>50 States + DC</t>
         </is>
@@ -2501,7 +2539,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="24" t="n"/>
+      <c r="A19" s="25" t="n"/>
       <c r="B19" t="inlineStr">
         <is>
           <t>Uncovered Pop</t>
@@ -2513,26 +2551,26 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="24" t="n"/>
+      <c r="A20" s="25" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="24" t="inlineStr">
+      <c r="A21" s="25" t="inlineStr">
         <is>
           <t>Pop-Weighted State Avg Tax Credit</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="24">
+      <c r="A22" s="25">
         <f>SUMPRODUCT(A9:A15,C9:C15)/C18</f>
         <v/>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="24" t="n"/>
+      <c r="A23" s="25" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="24" t="inlineStr">
+      <c r="A24" s="25" t="inlineStr">
         <is>
           <t>Total Tax Credit</t>
         </is>
@@ -2637,131 +2675,131 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="24">
+      <c r="A26" s="25">
         <f>A3+$A$22</f>
         <v/>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="25">
         <f>B3+$A$22</f>
         <v/>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="25">
         <f>C3+$A$22</f>
         <v/>
       </c>
-      <c r="D26" s="24">
+      <c r="D26" s="25">
         <f>D3+$A$22</f>
         <v/>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="25">
         <f>E3+$A$22</f>
         <v/>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="25">
         <f>F3+$A$22</f>
         <v/>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="25">
         <f>G3+$A$22</f>
         <v/>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="25">
         <f>H3+$A$22</f>
         <v/>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="25">
         <f>I3+$A$22</f>
         <v/>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="25">
         <f>J3+$A$22</f>
         <v/>
       </c>
-      <c r="K26" s="24">
+      <c r="K26" s="25">
         <f>K3+$A$22</f>
         <v/>
       </c>
-      <c r="L26" s="24">
+      <c r="L26" s="25">
         <f>L3+$A$22</f>
         <v/>
       </c>
-      <c r="M26" s="24">
+      <c r="M26" s="25">
         <f>M3+$A$22</f>
         <v/>
       </c>
-      <c r="N26" s="24">
+      <c r="N26" s="25">
         <f>N3+$A$22</f>
         <v/>
       </c>
-      <c r="O26" s="24">
+      <c r="O26" s="25">
         <f>O3+$A$22</f>
         <v/>
       </c>
-      <c r="P26" s="24">
+      <c r="P26" s="25">
         <f>P3+$A$22</f>
         <v/>
       </c>
-      <c r="Q26" s="24">
+      <c r="Q26" s="25">
         <f>Q3+$A$22</f>
         <v/>
       </c>
-      <c r="R26" s="24">
+      <c r="R26" s="25">
         <f>R3+$A$22</f>
         <v/>
       </c>
-      <c r="S26" s="24">
+      <c r="S26" s="25">
         <f>S3+$A$22</f>
         <v/>
       </c>
-      <c r="T26" s="24">
+      <c r="T26" s="25">
         <f>T3+$A$22</f>
         <v/>
       </c>
-      <c r="U26" s="24">
+      <c r="U26" s="25">
         <f>U3+$A$22</f>
         <v/>
       </c>
-      <c r="V26" s="24">
+      <c r="V26" s="25">
         <f>V3+$A$22</f>
         <v/>
       </c>
-      <c r="W26" s="24">
+      <c r="W26" s="25">
         <f>W3+$A$22</f>
         <v/>
       </c>
-      <c r="X26" s="24">
+      <c r="X26" s="25">
         <f>X3+$A$22</f>
         <v/>
       </c>
-      <c r="Y26" s="24">
+      <c r="Y26" s="25">
         <f>Y3+$A$22</f>
         <v/>
       </c>
-      <c r="Z26" s="24">
+      <c r="Z26" s="25">
         <f>Z3+$A$22</f>
         <v/>
       </c>
-      <c r="AA26" s="24">
+      <c r="AA26" s="25">
         <f>AA3+$A$22</f>
         <v/>
       </c>
-      <c r="AB26" s="24">
+      <c r="AB26" s="25">
         <f>AB3+$A$22</f>
         <v/>
       </c>
-      <c r="AC26" s="24">
+      <c r="AC26" s="25">
         <f>AC3+$A$22</f>
         <v/>
       </c>
-      <c r="AD26" s="24">
+      <c r="AD26" s="25">
         <f>AD3+$A$22</f>
         <v/>
       </c>
-      <c r="AE26" s="24">
+      <c r="AE26" s="25">
         <f>AE3+$A$22</f>
         <v/>
       </c>
-      <c r="AF26" s="24">
+      <c r="AF26" s="25">
         <f>AF3+$A$22</f>
         <v/>
       </c>
@@ -3214,16 +3252,16 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" s="28" t="n"/>
-      <c r="C45" s="29" t="n"/>
-      <c r="D45" s="29" t="n"/>
-      <c r="E45" s="29" t="n"/>
-      <c r="F45" s="29" t="n"/>
-      <c r="G45" s="29" t="n"/>
-      <c r="H45" s="29" t="n"/>
-      <c r="I45" s="29" t="n"/>
-      <c r="J45" s="29" t="n"/>
-      <c r="K45" s="29" t="n"/>
+      <c r="B45" s="29" t="n"/>
+      <c r="C45" s="30" t="n"/>
+      <c r="D45" s="30" t="n"/>
+      <c r="E45" s="30" t="n"/>
+      <c r="F45" s="30" t="n"/>
+      <c r="G45" s="30" t="n"/>
+      <c r="H45" s="30" t="n"/>
+      <c r="I45" s="30" t="n"/>
+      <c r="J45" s="30" t="n"/>
+      <c r="K45" s="30" t="n"/>
       <c r="L45" s="10" t="n"/>
     </row>
   </sheetData>
@@ -3243,18 +3281,18 @@
       <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="13.1328125" bestFit="1" customWidth="1" style="23" min="1" max="1"/>
-    <col width="28.59765625" bestFit="1" customWidth="1" style="23" min="2" max="2"/>
-    <col width="31.59765625" bestFit="1" customWidth="1" style="23" min="3" max="3"/>
-    <col width="10.73046875" customWidth="1" style="23" min="4" max="4"/>
-    <col width="14.3984375" customWidth="1" style="23" min="5" max="5"/>
-    <col width="11.86328125" customWidth="1" style="23" min="6" max="6"/>
-    <col width="13.1328125" customWidth="1" style="23" min="7" max="7"/>
+    <col width="13.1640625" bestFit="1" customWidth="1" style="23" min="1" max="1"/>
+    <col width="28.6640625" bestFit="1" customWidth="1" style="23" min="2" max="2"/>
+    <col width="31.6640625" bestFit="1" customWidth="1" style="23" min="3" max="3"/>
+    <col width="10.6640625" customWidth="1" style="23" min="4" max="4"/>
+    <col width="14.33203125" customWidth="1" style="23" min="5" max="5"/>
+    <col width="11.83203125" customWidth="1" style="23" min="6" max="6"/>
+    <col width="13.1640625" customWidth="1" style="23" min="7" max="7"/>
     <col width="11" customWidth="1" style="23" min="8" max="8"/>
-    <col width="10.73046875" customWidth="1" style="23" min="9" max="9"/>
-    <col width="11.86328125" customWidth="1" style="23" min="10" max="10"/>
+    <col width="10.6640625" customWidth="1" style="23" min="9" max="9"/>
+    <col width="11.83203125" customWidth="1" style="23" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11510,131 +11548,131 @@
       </c>
     </row>
     <row r="92">
-      <c r="C92" s="30">
+      <c r="C92" s="31">
         <f>SUMPRODUCT(C73:C89,C50:C66)/SUM(C50:C66)</f>
         <v/>
       </c>
-      <c r="D92" s="30">
+      <c r="D92" s="31">
         <f>SUMPRODUCT(D73:D89,D50:D66)/SUM(D50:D66)</f>
         <v/>
       </c>
-      <c r="E92" s="30">
+      <c r="E92" s="31">
         <f>SUMPRODUCT(E73:E89,E50:E66)/SUM(E50:E66)</f>
         <v/>
       </c>
-      <c r="F92" s="30">
+      <c r="F92" s="31">
         <f>SUMPRODUCT(F73:F89,F50:F66)/SUM(F50:F66)</f>
         <v/>
       </c>
-      <c r="G92" s="30">
+      <c r="G92" s="31">
         <f>SUMPRODUCT(G73:G89,G50:G66)/SUM(G50:G66)</f>
         <v/>
       </c>
-      <c r="H92" s="30">
+      <c r="H92" s="31">
         <f>SUMPRODUCT(H73:H89,H50:H66)/SUM(H50:H66)</f>
         <v/>
       </c>
-      <c r="I92" s="30">
+      <c r="I92" s="31">
         <f>SUMPRODUCT(I73:I89,I50:I66)/SUM(I50:I66)</f>
         <v/>
       </c>
-      <c r="J92" s="30">
+      <c r="J92" s="31">
         <f>SUMPRODUCT(J73:J89,J50:J66)/SUM(J50:J66)</f>
         <v/>
       </c>
-      <c r="K92" s="30">
+      <c r="K92" s="31">
         <f>SUMPRODUCT(K73:K89,K50:K66)/SUM(K50:K66)</f>
         <v/>
       </c>
-      <c r="L92" s="30">
+      <c r="L92" s="31">
         <f>SUMPRODUCT(L73:L89,L50:L66)/SUM(L50:L66)</f>
         <v/>
       </c>
-      <c r="M92" s="30">
+      <c r="M92" s="31">
         <f>SUMPRODUCT(M73:M89,M50:M66)/SUM(M50:M66)</f>
         <v/>
       </c>
-      <c r="N92" s="30">
+      <c r="N92" s="31">
         <f>SUMPRODUCT(N73:N89,N50:N66)/SUM(N50:N66)</f>
         <v/>
       </c>
-      <c r="O92" s="30">
+      <c r="O92" s="31">
         <f>SUMPRODUCT(O73:O89,O50:O66)/SUM(O50:O66)</f>
         <v/>
       </c>
-      <c r="P92" s="30">
+      <c r="P92" s="31">
         <f>SUMPRODUCT(P73:P89,P50:P66)/SUM(P50:P66)</f>
         <v/>
       </c>
-      <c r="Q92" s="30">
+      <c r="Q92" s="31">
         <f>SUMPRODUCT(Q73:Q89,Q50:Q66)/SUM(Q50:Q66)</f>
         <v/>
       </c>
-      <c r="R92" s="30">
+      <c r="R92" s="31">
         <f>SUMPRODUCT(R73:R89,R50:R66)/SUM(R50:R66)</f>
         <v/>
       </c>
-      <c r="S92" s="30">
+      <c r="S92" s="31">
         <f>SUMPRODUCT(S73:S89,S50:S66)/SUM(S50:S66)</f>
         <v/>
       </c>
-      <c r="T92" s="30">
+      <c r="T92" s="31">
         <f>SUMPRODUCT(T73:T89,T50:T66)/SUM(T50:T66)</f>
         <v/>
       </c>
-      <c r="U92" s="30">
+      <c r="U92" s="31">
         <f>SUMPRODUCT(U73:U89,U50:U66)/SUM(U50:U66)</f>
         <v/>
       </c>
-      <c r="V92" s="30">
+      <c r="V92" s="31">
         <f>SUMPRODUCT(V73:V89,V50:V66)/SUM(V50:V66)</f>
         <v/>
       </c>
-      <c r="W92" s="30">
+      <c r="W92" s="31">
         <f>SUMPRODUCT(W73:W89,W50:W66)/SUM(W50:W66)</f>
         <v/>
       </c>
-      <c r="X92" s="30">
+      <c r="X92" s="31">
         <f>SUMPRODUCT(X73:X89,X50:X66)/SUM(X50:X66)</f>
         <v/>
       </c>
-      <c r="Y92" s="30">
+      <c r="Y92" s="31">
         <f>SUMPRODUCT(Y73:Y89,Y50:Y66)/SUM(Y50:Y66)</f>
         <v/>
       </c>
-      <c r="Z92" s="30">
+      <c r="Z92" s="31">
         <f>SUMPRODUCT(Z73:Z89,Z50:Z66)/SUM(Z50:Z66)</f>
         <v/>
       </c>
-      <c r="AA92" s="30">
+      <c r="AA92" s="31">
         <f>SUMPRODUCT(AA73:AA89,AA50:AA66)/SUM(AA50:AA66)</f>
         <v/>
       </c>
-      <c r="AB92" s="30">
+      <c r="AB92" s="31">
         <f>SUMPRODUCT(AB73:AB89,AB50:AB66)/SUM(AB50:AB66)</f>
         <v/>
       </c>
-      <c r="AC92" s="30">
+      <c r="AC92" s="31">
         <f>SUMPRODUCT(AC73:AC89,AC50:AC66)/SUM(AC50:AC66)</f>
         <v/>
       </c>
-      <c r="AD92" s="30">
+      <c r="AD92" s="31">
         <f>SUMPRODUCT(AD73:AD89,AD50:AD66)/SUM(AD50:AD66)</f>
         <v/>
       </c>
-      <c r="AE92" s="30">
+      <c r="AE92" s="31">
         <f>SUMPRODUCT(AE73:AE89,AE50:AE66)/SUM(AE50:AE66)</f>
         <v/>
       </c>
-      <c r="AF92" s="30">
+      <c r="AF92" s="31">
         <f>SUMPRODUCT(AF73:AF89,AF50:AF66)/SUM(AF50:AF66)</f>
         <v/>
       </c>
-      <c r="AG92" s="30">
+      <c r="AG92" s="31">
         <f>SUMPRODUCT(AG73:AG89,AG50:AG66)/SUM(AG50:AG66)</f>
         <v/>
       </c>
-      <c r="AH92" s="30">
+      <c r="AH92" s="31">
         <f>SUMPRODUCT(AH73:AH89,AH50:AH66)/SUM(AH50:AH66)</f>
         <v/>
       </c>
@@ -11664,9 +11702,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="26.86328125" bestFit="1" customWidth="1" style="23" min="3" max="3"/>
+    <col width="26.83203125" bestFit="1" customWidth="1" style="23" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -13707,10 +13745,10 @@
       <selection activeCell="A1" sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="28.86328125" bestFit="1" customWidth="1" style="23" min="1" max="1"/>
-    <col width="17.265625" bestFit="1" customWidth="1" style="23" min="2" max="2"/>
+    <col width="28.83203125" bestFit="1" customWidth="1" style="23" min="1" max="1"/>
+    <col width="17.33203125" bestFit="1" customWidth="1" style="23" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -14064,12 +14102,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="15.3984375" customWidth="1" style="23" min="1" max="1"/>
+    <col width="15.33203125" customWidth="1" style="23" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42.75" customHeight="1" s="23">
+    <row r="1" ht="48" customHeight="1" s="23">
       <c r="A1" s="21" t="inlineStr">
         <is>
           <t>Subsidy Percentage (dimensionless)</t>
@@ -14187,143 +14225,143 @@
           <t>LDVs</t>
         </is>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="32">
         <f>C2</f>
         <v/>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="32">
         <f>D2</f>
         <v/>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="32">
         <f>E2</f>
         <v/>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="33">
         <f>Data!A33</f>
         <v/>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="33">
         <f>Data!B33</f>
         <v/>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="33">
         <f>Data!C33</f>
         <v/>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="33">
         <f>Data!D33</f>
         <v/>
       </c>
-      <c r="I2" s="32">
+      <c r="I2" s="33">
         <f>Data!E33</f>
         <v/>
       </c>
-      <c r="J2" s="32">
+      <c r="J2" s="33">
         <f>Data!F33</f>
         <v/>
       </c>
-      <c r="K2" s="32">
+      <c r="K2" s="33">
         <f>Data!G33</f>
         <v/>
       </c>
-      <c r="L2" s="32">
+      <c r="L2" s="33">
         <f>Data!H33</f>
         <v/>
       </c>
-      <c r="M2" s="32">
+      <c r="M2" s="33">
         <f>Data!I33</f>
         <v/>
       </c>
-      <c r="N2" s="32">
+      <c r="N2" s="33">
         <f>Data!J33</f>
         <v/>
       </c>
-      <c r="O2" s="32">
+      <c r="O2" s="33">
         <f>Data!K33</f>
         <v/>
       </c>
-      <c r="P2" s="32">
+      <c r="P2" s="33">
         <f>Data!L33</f>
         <v/>
       </c>
-      <c r="Q2" s="32">
+      <c r="Q2" s="33">
         <f>Data!M33</f>
         <v/>
       </c>
-      <c r="R2" s="32">
+      <c r="R2" s="33">
         <f>Data!N33</f>
         <v/>
       </c>
-      <c r="S2" s="32">
+      <c r="S2" s="33">
         <f>Data!O33</f>
         <v/>
       </c>
-      <c r="T2" s="32">
+      <c r="T2" s="33">
         <f>Data!P33</f>
         <v/>
       </c>
-      <c r="U2" s="32">
+      <c r="U2" s="33">
         <f>Data!Q33</f>
         <v/>
       </c>
-      <c r="V2" s="32">
+      <c r="V2" s="33">
         <f>Data!R33</f>
         <v/>
       </c>
-      <c r="W2" s="32">
+      <c r="W2" s="33">
         <f>Data!S33</f>
         <v/>
       </c>
-      <c r="X2" s="32">
+      <c r="X2" s="33">
         <f>Data!T33</f>
         <v/>
       </c>
-      <c r="Y2" s="32">
+      <c r="Y2" s="33">
         <f>Data!U33</f>
         <v/>
       </c>
-      <c r="Z2" s="32">
+      <c r="Z2" s="33">
         <f>Data!V33</f>
         <v/>
       </c>
-      <c r="AA2" s="32">
+      <c r="AA2" s="33">
         <f>Data!W33</f>
         <v/>
       </c>
-      <c r="AB2" s="32">
+      <c r="AB2" s="33">
         <f>Data!X33</f>
         <v/>
       </c>
-      <c r="AC2" s="32">
+      <c r="AC2" s="33">
         <f>Data!Y33</f>
         <v/>
       </c>
-      <c r="AD2" s="32">
+      <c r="AD2" s="33">
         <f>Data!Z33</f>
         <v/>
       </c>
-      <c r="AE2" s="32">
+      <c r="AE2" s="33">
         <f>Data!AA33</f>
         <v/>
       </c>
-      <c r="AF2" s="32">
+      <c r="AF2" s="33">
         <f>Data!AB33</f>
         <v/>
       </c>
-      <c r="AG2" s="32">
+      <c r="AG2" s="33">
         <f>Data!AC33</f>
         <v/>
       </c>
-      <c r="AH2" s="32">
+      <c r="AH2" s="33">
         <f>Data!AD33</f>
         <v/>
       </c>
-      <c r="AI2" s="32">
+      <c r="AI2" s="33">
         <f>Data!AE33</f>
         <v/>
       </c>
-      <c r="AJ2" s="32">
+      <c r="AJ2" s="33">
         <f>Data!AF33</f>
         <v/>
       </c>
@@ -14906,12 +14944,12 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="16.86328125" customWidth="1" style="23" min="1" max="1"/>
+    <col width="16.83203125" customWidth="1" style="23" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42.75" customHeight="1" s="23">
+    <row r="1" ht="32" customHeight="1" s="23">
       <c r="A1" s="21" t="inlineStr">
         <is>
           <t>Subsidy Percentage (dimensionless)</t>

--- a/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
+++ b/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/MT/trans/BESP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16A578D0-6A92-7448-A690-641ED1DBDD69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7C11DD6-0480-9C4A-8D05-CC358A347A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14680" yWindow="460" windowWidth="14060" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14680" yWindow="500" windowWidth="14060" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="25" r:id="rId8"/>
+    <pivotCache cacheId="29" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="284">
   <si>
     <t>BESP BAU EV Subsidy Percentage</t>
   </si>
@@ -883,6 +883,15 @@
   </si>
   <si>
     <t>State Rebates + Tax Credits Updated 8/11/2021</t>
+  </si>
+  <si>
+    <t>Note: this does not include the IRA subsidies</t>
+  </si>
+  <si>
+    <t>The file expressely excludes the IRA related subsidies - more modeling is required to understand</t>
+  </si>
+  <si>
+    <t>which models will apply under the requirements.</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1223,6 +1232,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
   </cellXfs>
@@ -1272,7 +1284,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nathan Iyer" refreshedDate="44420.463605671299" refreshedVersion="7" recordCount="45" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nathan Iyer" refreshedDate="44819.670905439816" refreshedVersion="8" recordCount="45" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:P47" sheet="2019 Sales"/>
   </cacheSource>
@@ -2169,7 +2181,127 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="BAU 2" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="7" rowGrandTotals="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="BAU" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A22:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField name="Mfg" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
+      <items count="19">
+        <item x="10"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="15"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="13"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="14"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Type" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="2019 U.S. EV SALES" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="JAN" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="FEB" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="MAR" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="APR" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="MAY" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="JUN" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="JUL" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="AUG" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="SEP" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="OCT" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="NOV" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="DEC" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="TOTAL" dataField="1" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="19">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of TOTAL" fld="15" showDataAs="percentOfCol" baseField="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="BAU 2" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="G22:J41" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField name="Mfg" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -2288,126 +2420,6 @@
     <dataField name="Sum of JAN" fld="3" baseField="0"/>
     <dataField name="Sum of FEB" fld="4" baseField="0"/>
     <dataField name="Sum of MAR" fld="5" baseField="0"/>
-  </dataFields>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="BAU" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="7" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A22:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField name="Mfg" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
-      <items count="19">
-        <item x="10"/>
-        <item x="5"/>
-        <item x="16"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="15"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="13"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="12"/>
-        <item x="17"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="14"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Type" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="2019 U.S. EV SALES" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="JAN" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="FEB" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="MAR" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="APR" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="MAY" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="JUN" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="JUL" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="AUG" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="SEP" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="OCT" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="NOV" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="DEC" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="TOTAL" dataField="1" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="19">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of TOTAL" fld="15" showDataAs="percentOfCol" baseField="0" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2618,8 +2630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2637,7 +2649,7 @@
         <v>70</v>
       </c>
       <c r="C1" s="50">
-        <v>44420</v>
+        <v>44819</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -3060,6 +3072,9 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="52" t="s">
+        <v>282</v>
+      </c>
       <c r="B40" s="4"/>
       <c r="F40" s="5" t="s">
         <v>104</v>
@@ -3069,6 +3084,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="53" t="s">
+        <v>283</v>
+      </c>
       <c r="B41" s="4"/>
       <c r="F41" s="5" t="s">
         <v>106</v>
@@ -6029,8 +6047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6162,95 +6180,72 @@
         <v>1913.0458308533109</v>
       </c>
       <c r="E3" s="11">
-        <f>BAU!G92</f>
-        <v>1531.9111519939402</v>
+        <v>0</v>
       </c>
       <c r="F3" s="11">
-        <f>BAU!H92</f>
-        <v>1131.4322818029341</v>
+        <v>0</v>
       </c>
       <c r="G3" s="11">
-        <f>BAU!I92</f>
-        <v>933.18813916995919</v>
+        <v>0</v>
       </c>
       <c r="H3" s="11">
-        <f>BAU!J92</f>
-        <v>933.18813916995953</v>
+        <v>0</v>
       </c>
       <c r="I3" s="11">
-        <f>BAU!K92</f>
-        <v>744.00735890914916</v>
+        <v>0</v>
       </c>
       <c r="J3" s="11">
-        <f>BAU!L92</f>
-        <v>744.00735890914984</v>
+        <v>0</v>
       </c>
       <c r="K3" s="11">
-        <f>BAU!M92</f>
-        <v>621.92251501542137</v>
+        <v>0</v>
       </c>
       <c r="L3" s="11">
-        <f>BAU!N92</f>
-        <v>240.24673989502756</v>
+        <v>0</v>
       </c>
       <c r="M3" s="11">
-        <f>BAU!O92</f>
-        <v>18.397272874844433</v>
+        <v>0</v>
       </c>
       <c r="N3" s="11">
-        <f>BAU!P92</f>
-        <v>18.397272874844436</v>
+        <v>0</v>
       </c>
       <c r="O3" s="11">
-        <f>BAU!Q92</f>
-        <v>18.397272874844433</v>
+        <v>0</v>
       </c>
       <c r="P3" s="11">
-        <f>BAU!R92</f>
-        <v>18.397272874844436</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="11">
-        <f>BAU!S92</f>
-        <v>18.397272874844433</v>
+        <v>0</v>
       </c>
       <c r="R3" s="11">
-        <f>BAU!T92</f>
-        <v>18.397272874844433</v>
+        <v>0</v>
       </c>
       <c r="S3" s="11">
-        <f>BAU!U92</f>
-        <v>18.397272874844436</v>
+        <v>0</v>
       </c>
       <c r="T3" s="11">
-        <f>BAU!V92</f>
         <v>0</v>
       </c>
       <c r="U3" s="11">
-        <f>BAU!W92</f>
         <v>0</v>
       </c>
       <c r="V3" s="11">
-        <f>BAU!X92</f>
         <v>0</v>
       </c>
       <c r="W3" s="11">
-        <f>BAU!Y92</f>
         <v>0</v>
       </c>
       <c r="X3" s="11">
-        <f>BAU!Z92</f>
         <v>0</v>
       </c>
       <c r="Y3" s="11">
-        <f>BAU!AA92</f>
         <v>0</v>
       </c>
       <c r="Z3" s="11">
-        <f>BAU!AB92</f>
         <v>0</v>
       </c>
       <c r="AA3" s="11">
-        <f>BAU!AC92</f>
         <v>0</v>
       </c>
       <c r="AB3" s="11">
@@ -6276,6 +6271,9 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
+      <c r="E4" s="51" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
@@ -6990,63 +6988,63 @@
       </c>
       <c r="E33" s="12">
         <f t="shared" si="2"/>
-        <v>3.2276446350863221E-2</v>
+        <v>0</v>
       </c>
       <c r="F33" s="12">
         <f t="shared" si="2"/>
-        <v>2.4244700384915618E-2</v>
+        <v>0</v>
       </c>
       <c r="G33" s="12">
         <f t="shared" si="2"/>
-        <v>2.030320606688828E-2</v>
+        <v>0</v>
       </c>
       <c r="H33" s="12">
         <f t="shared" si="2"/>
-        <v>2.0586137472892872E-2</v>
+        <v>0</v>
       </c>
       <c r="I33" s="12">
         <f t="shared" si="2"/>
-        <v>1.6625788463719697E-2</v>
+        <v>0</v>
       </c>
       <c r="J33" s="12">
         <f t="shared" si="2"/>
-        <v>1.6823648726348193E-2</v>
+        <v>0</v>
       </c>
       <c r="K33" s="12">
         <f t="shared" si="2"/>
-        <v>1.4218979329965348E-2</v>
+        <v>0</v>
       </c>
       <c r="L33" s="12">
         <f t="shared" si="2"/>
-        <v>5.5490130566995003E-3</v>
+        <v>0</v>
       </c>
       <c r="M33" s="12">
         <f t="shared" si="2"/>
-        <v>4.2879088392598608E-4</v>
+        <v>0</v>
       </c>
       <c r="N33" s="12">
         <f t="shared" si="2"/>
-        <v>4.3223425106299427E-4</v>
+        <v>0</v>
       </c>
       <c r="O33" s="12">
         <f t="shared" si="2"/>
-        <v>4.3534052402050265E-4</v>
+        <v>0</v>
       </c>
       <c r="P33" s="12">
         <f t="shared" si="2"/>
-        <v>4.3811375678330243E-4</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="12">
         <f t="shared" si="2"/>
-        <v>4.4056987719316422E-4</v>
+        <v>0</v>
       </c>
       <c r="R33" s="12">
         <f t="shared" si="2"/>
-        <v>4.4273489183500951E-4</v>
+        <v>0</v>
       </c>
       <c r="S33" s="12">
         <f t="shared" si="2"/>
-        <v>4.446717974617184E-4</v>
+        <v>0</v>
       </c>
       <c r="T33" s="12">
         <f t="shared" si="2"/>
@@ -20411,7 +20409,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="54" t="s">
         <v>262</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -20425,7 +20423,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="52"/>
+      <c r="A2" s="55"/>
       <c r="B2" s="8" t="s">
         <v>266</v>
       </c>
@@ -20437,7 +20435,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="52"/>
+      <c r="A3" s="55"/>
       <c r="C3" s="8">
         <v>200000</v>
       </c>
@@ -20446,7 +20444,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
+      <c r="A4" s="55"/>
       <c r="D4" s="8">
         <v>200000</v>
       </c>
@@ -21838,63 +21836,63 @@
       </c>
       <c r="I2" s="40">
         <f>Data!E33</f>
-        <v>3.2276446350863221E-2</v>
+        <v>0</v>
       </c>
       <c r="J2" s="40">
         <f>Data!F33</f>
-        <v>2.4244700384915618E-2</v>
+        <v>0</v>
       </c>
       <c r="K2" s="40">
         <f>Data!G33</f>
-        <v>2.030320606688828E-2</v>
+        <v>0</v>
       </c>
       <c r="L2" s="40">
         <f>Data!H33</f>
-        <v>2.0586137472892872E-2</v>
+        <v>0</v>
       </c>
       <c r="M2" s="40">
         <f>Data!I33</f>
-        <v>1.6625788463719697E-2</v>
+        <v>0</v>
       </c>
       <c r="N2" s="40">
         <f>Data!J33</f>
-        <v>1.6823648726348193E-2</v>
+        <v>0</v>
       </c>
       <c r="O2" s="40">
         <f>Data!K33</f>
-        <v>1.4218979329965348E-2</v>
+        <v>0</v>
       </c>
       <c r="P2" s="40">
         <f>Data!L33</f>
-        <v>5.5490130566995003E-3</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="40">
         <f>Data!M33</f>
-        <v>4.2879088392598608E-4</v>
+        <v>0</v>
       </c>
       <c r="R2" s="40">
         <f>Data!N33</f>
-        <v>4.3223425106299427E-4</v>
+        <v>0</v>
       </c>
       <c r="S2" s="40">
         <f>Data!O33</f>
-        <v>4.3534052402050265E-4</v>
+        <v>0</v>
       </c>
       <c r="T2" s="40">
         <f>Data!P33</f>
-        <v>4.3811375678330243E-4</v>
+        <v>0</v>
       </c>
       <c r="U2" s="40">
         <f>Data!Q33</f>
-        <v>4.4056987719316422E-4</v>
+        <v>0</v>
       </c>
       <c r="V2" s="40">
         <f>Data!R33</f>
-        <v>4.4273489183500951E-4</v>
+        <v>0</v>
       </c>
       <c r="W2" s="40">
         <f>Data!S33</f>
-        <v>4.446717974617184E-4</v>
+        <v>0</v>
       </c>
       <c r="X2" s="40">
         <f>Data!T33</f>
